--- a/DOM_Banner/output/dept0713/Salma Imran Patel_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Salma Imran Patel_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA; Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Division of Sleep and Circadian Disorders, Brigham and Women’s Hospital and Division of Sleep Medicine, Harvard Medical School, Boston, MA 02115, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Sleep Medicine, The University of Arizona College of Medicine, Phoenix, AZ 85006, USA; The Intermountain Healthcare, Merrill Gappmayer Family Medicine Center, Provo, UT 84604, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Child Health, University of Missouri School of Medicine, Columbia, MO 65201, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229052959</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Obstructive Sleep Apnea as a Risk Factor for COVID-19 Severity—The Gut Microbiome as a Common Player Mediating Systemic Inflammation via Gut Barrier Dysfunction</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cells</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35563874</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Behavioral Health, Henry Ford Health System, USA; Center for Health Policy and Health Services Research, Henry Ford Health System, USA. Electronic address: Lmatero1@hfhs.org.; Center for Health Policy and Health Services Research, Henry Ford Health System, USA; Behavioral Health, Henry Ford Health System, USA; Behavioral Health, Henry Ford Health System, USA; Behavioral Health, Henry Ford Health System, USA; Department of Surgery, Henry Ford Health System, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280541444</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Exploring gender, psychiatric symptoms, and eating behaviors as predictors of attrition to bariatric surgery</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Surgery</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjsurg.2022.05.004</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35570060</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjsurg.2022.05.004</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, AZ, United States; Department of Psychiatry, University of California, San Diego, La Jolla, CA, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Psychology, California State University, San Marcos, CA, United States; Department of Kinesiology and Nutrition Sciences, Univeristy of Nevada, Las Vegas, NV, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Psychiatry and Behavioral Sciences, Johns Hopkins University, Baltimore, MD, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309308783</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Circadian acclimatization of performance, sleep, and 6-sulfatoxymelatonin using multiple phase shifting stimuli</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frontiers in Endocrinology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fendo.2022.964681</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36465660</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fendo.2022.964681</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Clinical Cardiovascular Research Center, University of Rochester Medical Center, USA; UAHS Center for Biomedical Informatics and Biostatistics, University of Arizona, USA; Clinical Cardiovascular Research Center, University of Rochester Medical Center, USA; Clinical Cardiovascular Research Center, University of Rochester Medical Center, USA; Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224260941</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Markers of ventricular repolarization and overall mortality in sleep disordered breathing</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Sleep Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2022.04.016</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35533628</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2022.04.016</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Psychiatry Beaumont Health Dearborn, Michigan; Department of Psychiatry Henry Ford Health Detroit, Michigan [email protected]; Received April 22, 2022; accepted after revision July 21, 2022.; Department of Psychiatry Beaumont Health Dearborn, Michigan; Department of Psychiatry Henry Ford Health Detroit, Michigan [email protected]; Received April 22, 2022; accepted after revision July 21, 2022.; Department of Psychiatry Beaumont Health Dearborn, Michigan; Department of Psychiatry Henry Ford Health Detroit, Michigan [email protected]; Received April 22, 2022; accepted after revision July 21, 2022.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297081704</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Letter to the Editor</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-09-11</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Clinical Psychopharmacology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/jcp.0000000000001603</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36094532</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/jcp.0000000000001603</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>letter</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Psychiatry, Henry Ford Hospital, Detroit, MI, USA.; Department of Psychiatry, Henry Ford Hospital, Detroit, MI, USA.; Harborview Medical Center, Department of Psychiatry &amp; Behavioral Sciences, University of Washington, Seattle, WA, USA.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206985173</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Practice patterns of bupropion co-prescription with antipsychotic medications</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-22</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Addictive Diseases</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/10550887.2022.2028531</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35068363</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/10550887.2022.2028531</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Henry Ford Hospital, Detroit, MI; Henry Ford Hospital, Detroit, MI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214754149</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Compulsivity in Intractable Idiopathic Generalized Epilepsy</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of the Academy of Consultation-Liaison Psychiatry</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaclp.2021.09.004</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35241253</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaclp.2021.09.004</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281873662</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0782 Changes in markers of ventricular repolarization and positive airway pressure therapy: A pilot study</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293067000</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0696 The Application of a QTc Risk Score in Patients with Obstructive Sleep Apnea</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Arizona State University; University of Virgina; Arizona State University; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293067394</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0098 A Model for a Chronic Napping in Older Adults at Risk for Alzheimer’s Disease</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.096</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.096</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Salma Imran Patel_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Salma Imran Patel_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1056,22 +1056,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Karolina Perez, Wojciech Zaręba, Bonnie LaFleur, Xiaojuan Xia, Raymond L. Woosley, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Shivali Patel, Wojciech Zaręba, Sairam Parthasarathy, Karolina Perez, Chris Wendel, Xiaojuan Xia, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Raymond L. Woosley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281873662</t>
+          <t>https://openalex.org/W4293067000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0782 Changes in markers of ventricular repolarization and positive airway pressure therapy: A pilot study</t>
+          <t>0696 The Application of a QTc Risk Score in Patients with Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,22 +1143,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Sairam Parthasarathy, Karolina Perez, Chris Wendel, Xiaojuan Xia, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Raymond L. Woosley</t>
+          <t>Karolina Perez, Wojciech Zaręba, Bonnie LaFleur, Xiaojuan Xia, Raymond L. Woosley, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4293067000</t>
+          <t>https://openalex.org/W4281873662</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0696 The Application of a QTc Risk Score in Patients with Obstructive Sleep Apnea</t>
+          <t>0782 Changes in markers of ventricular repolarization and positive airway pressure therapy: A pilot study</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
